--- a/src/Exported files/test CI sinstance B.xlsx
+++ b/src/Exported files/test CI sinstance B.xlsx
@@ -375,35 +375,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>__EMPTY</v>
       </c>
       <c r="B1" t="str">
-        <v>__EMPTY</v>
+        <v>APPLICATION</v>
       </c>
       <c r="C1" t="str">
-        <v>APPLICATION</v>
+        <v>NETWORK_NAME</v>
       </c>
       <c r="D1" t="str">
-        <v>NETWORK_NAME</v>
+        <v>TYPE</v>
       </c>
       <c r="E1" t="str">
-        <v>TYPE</v>
+        <v>SUBTYPE</v>
       </c>
       <c r="F1" t="str">
-        <v>SUBTYPE</v>
+        <v>LOGICAL_NAME</v>
       </c>
       <c r="G1" t="str">
-        <v>LOGICAL_NAME</v>
+        <v>DISPLAY_NAME</v>
       </c>
       <c r="H1" t="str">
-        <v>DISPLAY_NAME</v>
+        <v>COMPANY</v>
       </c>
       <c r="I1" t="str">
         <v>NRB_MANAGED_BY</v>
@@ -417,624 +417,656 @@
       <c r="L1" t="str">
         <v>DESCRIPTION</v>
       </c>
-      <c r="M1" t="str">
-        <v>systems</v>
-      </c>
-      <c r="N1" t="str">
-        <v>COMPANY-NAME</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>Our name</v>
       </c>
       <c r="B2" t="str">
+        <v>application</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Mainframe System</v>
+      </c>
+      <c r="D2" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F2" t="str">
+        <v>="B C"</v>
+      </c>
+      <c r="G2" t="str">
+        <v>=MBULL_(Our name)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Client ou PROD-NRB</v>
+      </c>
+      <c r="I2" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J2" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>VTOM 5.8 V9NRBDEV</v>
       </c>
-      <c r="C2" t="str">
-        <v>VTOM 5.8</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="B3" t="str">
+        <v>ABS VTO 5.8</v>
+      </c>
+      <c r="C3" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E2" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G2" t="str">
+      <c r="D3" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F3" t="str">
         <v>ABS VTO 5.8 V9NRBDEV</v>
       </c>
-      <c r="H2" t="str">
+      <c r="G3" t="str">
         <v>MBULL_VTOM 5.8 V9NRBDEV</v>
       </c>
-      <c r="I2" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J2" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="H3" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I3" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J3" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L3" t="str">
         <v>VTOM  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
+    <row r="4">
+      <c r="A4" t="str">
         <v>VTOM 5.8 V9NRBEXP</v>
       </c>
-      <c r="C3" t="str">
-        <v>VTOM 5.8</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="B4" t="str">
+        <v>ABS VTO 5.8</v>
+      </c>
+      <c r="C4" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E3" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="D4" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F4" t="str">
         <v>ABS VTO 5.8 V9NRBEXP</v>
       </c>
-      <c r="H3" t="str">
+      <c r="G4" t="str">
         <v>MBULL_VTOM 5.8 V9NRBEXP</v>
       </c>
-      <c r="I3" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J3" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="H4" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I4" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J4" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L4" t="str">
         <v>VTOM  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
+    <row r="5">
+      <c r="A5" t="str">
         <v>BASE_GCOS8_SR 8.0 V9NRBDEV</v>
       </c>
-      <c r="C4" t="str">
-        <v>BASE_GCOS8_SR 8.0</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="B5" t="str">
+        <v>ATO GC8 8.0</v>
+      </c>
+      <c r="C5" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E4" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="D5" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F5" t="str">
         <v>ATO GC8 8.0 V9NRBDEV</v>
       </c>
-      <c r="H4" t="str">
+      <c r="G5" t="str">
         <v>MBULL_BASE_GCOS8_SR 8.0 V9NRBDEV</v>
       </c>
-      <c r="I4" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J4" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="H5" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I5" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J5" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L5" t="str">
         <v>GCOS8 SR8 BASE SYSTEM  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
+    <row r="6">
+      <c r="A6" t="str">
         <v>BASE_GCOS8_SR 8.0 V9NRBEXP</v>
       </c>
-      <c r="C5" t="str">
-        <v>BASE_GCOS8_SR 8.0</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="B6" t="str">
+        <v>ATO GC8 8.0</v>
+      </c>
+      <c r="C6" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E5" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="D6" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F6" t="str">
         <v>ATO GC8 8.0 V9NRBEXP</v>
       </c>
-      <c r="H5" t="str">
+      <c r="G6" t="str">
         <v>MBULL_BASE_GCOS8_SR 8.0 V9NRBEXP</v>
       </c>
-      <c r="I5" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J5" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="H6" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I6" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J6" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L6" t="str">
         <v>GCOS8 SR8 BASE SYSTEM  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
+    <row r="7">
+      <c r="A7" t="str">
         <v>TP8 4.3 V9NRBDEV</v>
       </c>
-      <c r="C6" t="str">
-        <v>TP8 4.3</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="B7" t="str">
+        <v>ATO TP8 4.3</v>
+      </c>
+      <c r="C7" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E6" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="D7" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F7" t="str">
         <v>ATO TP8 4.3 V9NRBDEV</v>
       </c>
-      <c r="H6" t="str">
+      <c r="G7" t="str">
         <v>MBULL_TP8 4.3 V9NRBDEV</v>
       </c>
-      <c r="I6" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J6" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="H7" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I7" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J7" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L7" t="str">
         <v>Transactionnel TP8  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
+    <row r="8">
+      <c r="A8" t="str">
         <v>TP8 4.3 V9NRBEXP</v>
       </c>
-      <c r="C7" t="str">
-        <v>TP8 4.3</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="B8" t="str">
+        <v>ATO TP8 4.3</v>
+      </c>
+      <c r="C8" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E7" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="D8" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F8" t="str">
         <v>ATO TP8 4.3 V9NRBEXP</v>
       </c>
-      <c r="H7" t="str">
+      <c r="G8" t="str">
         <v>MBULL_TP8 4.3 V9NRBEXP</v>
       </c>
-      <c r="I7" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J7" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="H8" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I8" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J8" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L8" t="str">
         <v>Transactionnel TP8  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
+    <row r="9">
+      <c r="A9" t="str">
         <v>UniqPrint 5000V V9NRBDEV</v>
       </c>
-      <c r="C8" t="str">
-        <v>UniqPrint 5000V</v>
-      </c>
-      <c r="D8" t="str">
+      <c r="B9" t="str">
+        <v>ATO UNI 5000V</v>
+      </c>
+      <c r="C9" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E8" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="D9" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F9" t="str">
         <v>ATO UNI 5000V V9NRBDEV</v>
       </c>
-      <c r="H8" t="str">
+      <c r="G9" t="str">
         <v>MBULL_UniqPrint 5000V V9NRBDEV</v>
       </c>
-      <c r="I8" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J8" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="H9" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I9" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J9" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L9" t="str">
         <v>Columbus OM  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
+    <row r="10">
+      <c r="A10" t="str">
         <v>UniqPrint 5000V V9NRBEXP</v>
       </c>
-      <c r="C9" t="str">
-        <v>UniqPrint 5000V</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="B10" t="str">
+        <v>ATO UNI 5000V</v>
+      </c>
+      <c r="C10" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E9" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="D10" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F10" t="str">
         <v>ATO UNI 5000V V9NRBEXP</v>
       </c>
-      <c r="H9" t="str">
+      <c r="G10" t="str">
         <v>MBULL_UniqPrint 5000V V9NRBEXP</v>
       </c>
-      <c r="I9" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J9" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="H10" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I10" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J10" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L10" t="str">
         <v>Columbus OM  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
+    <row r="11">
+      <c r="A11" t="str">
         <v>SARD8 6.3 V9NRBDEV</v>
       </c>
-      <c r="C10" t="str">
-        <v>SARD8 6.3</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="B11" t="str">
+        <v>CLR SAR 6.3</v>
+      </c>
+      <c r="C11" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E10" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="D11" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F11" t="str">
         <v>CLR SAR 6.3 V9NRBDEV</v>
       </c>
-      <c r="H10" t="str">
+      <c r="G11" t="str">
         <v>MBULL_SARD8 6.3 V9NRBDEV</v>
       </c>
-      <c r="I10" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J10" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="H11" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I11" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J11" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L11" t="str">
         <v>SARD8  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
+    <row r="12">
+      <c r="A12" t="str">
         <v>SARD8 6.3 V9NRBEXP</v>
       </c>
-      <c r="C11" t="str">
-        <v>SARD8 6.3</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="B12" t="str">
+        <v>CLR SAR 6.3</v>
+      </c>
+      <c r="C12" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E11" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="D12" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F12" t="str">
         <v>CLR SAR 6.3 V9NRBEXP</v>
       </c>
-      <c r="H11" t="str">
+      <c r="G12" t="str">
         <v>MBULL_SARD8 6.3 V9NRBEXP</v>
       </c>
-      <c r="I11" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J11" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="H12" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I12" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J12" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L12" t="str">
         <v>SARD8  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
+    <row r="13">
+      <c r="A13" t="str">
         <v>PILOT-MASTER 8.0 V9NRBDEV</v>
       </c>
-      <c r="C12" t="str">
-        <v>PILOT-MASTER 8.0</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="B13" t="str">
+        <v>EVI PIL 8.0</v>
+      </c>
+      <c r="C13" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E12" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="D13" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F13" t="str">
         <v>EVI PIL 8.0 V9NRBDEV</v>
       </c>
-      <c r="H12" t="str">
+      <c r="G13" t="str">
         <v>MBULL_PILOT-MASTER 8.0 V9NRBDEV</v>
       </c>
-      <c r="I12" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J12" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K12" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="H13" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I13" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J13" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L13" t="str">
         <v>OM PILOT  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
+    <row r="14">
+      <c r="A14" t="str">
         <v>PILOT-MASTER 8.0 V9NRBEXP</v>
       </c>
-      <c r="C13" t="str">
-        <v>PILOT-MASTER 8.0</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="B14" t="str">
+        <v>EVI PIL 8.0</v>
+      </c>
+      <c r="C14" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E13" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="D14" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F14" t="str">
         <v>EVI PIL 8.0 V9NRBEXP</v>
       </c>
-      <c r="H13" t="str">
+      <c r="G14" t="str">
         <v>MBULL_PILOT-MASTER 8.0 V9NRBEXP</v>
       </c>
-      <c r="I13" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J13" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="H14" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I14" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J14" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L14" t="str">
         <v>OM PILOT  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
+    <row r="15">
+      <c r="A15" t="str">
         <v>VTDX 6 V9NRBDEV</v>
       </c>
-      <c r="C14" t="str">
-        <v>VTDX 6</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="B15" t="str">
+        <v>MMR VTD 6</v>
+      </c>
+      <c r="C15" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E14" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="D15" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F15" t="str">
         <v>MMR VTD 6 V9NRBDEV</v>
       </c>
-      <c r="H14" t="str">
+      <c r="G15" t="str">
         <v>MBULL_VTDX 6 V9NRBDEV</v>
       </c>
-      <c r="I14" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J14" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K14" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="H15" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I15" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J15" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L15" t="str">
         <v>VTD8  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
+    <row r="16">
+      <c r="A16" t="str">
         <v>VTDX 6 V9NRBEXP</v>
       </c>
-      <c r="C15" t="str">
-        <v>VTDX 6</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="B16" t="str">
+        <v>MMR VTD 6</v>
+      </c>
+      <c r="C16" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E15" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="D16" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F16" t="str">
         <v>MMR VTD 6 V9NRBEXP</v>
       </c>
-      <c r="H15" t="str">
+      <c r="G16" t="str">
         <v>MBULL_VTDX 6 V9NRBEXP</v>
       </c>
-      <c r="I15" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J15" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K15" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="H16" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I16" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J16" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L16" t="str">
         <v>VTD8  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
+    <row r="17">
+      <c r="A17" t="str">
         <v>BETTER 5.1 V9NRBDEV</v>
       </c>
-      <c r="C16" t="str">
-        <v>BETTER 5.1</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="B17" t="str">
+        <v>ULK BET 5.1</v>
+      </c>
+      <c r="C17" t="str">
         <v>V9NRBDEV</v>
       </c>
-      <c r="E16" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="D17" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F17" t="str">
         <v>ULK BET 5.1 V9NRBDEV</v>
       </c>
-      <c r="H16" t="str">
+      <c r="G17" t="str">
         <v>MBULL_BETTER 5.1 V9NRBDEV</v>
       </c>
-      <c r="I16" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J16" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K16" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="H17" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I17" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J17" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L17" t="str">
         <v>LOUIS/BETTER  sur  Partition GCOS8 SPW DEVELOPPEMENT</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
+    <row r="18">
+      <c r="A18" t="str">
         <v>BETTER 5.1 V9NRBEXP</v>
       </c>
-      <c r="C17" t="str">
-        <v>BETTER 5.1</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="B18" t="str">
+        <v>ULK BET 5.1</v>
+      </c>
+      <c r="C18" t="str">
         <v>V9NRBEXP</v>
       </c>
-      <c r="E17" t="str">
-        <v>sinstance</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Mainframe Software</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="D18" t="str">
+        <v>sinstance</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Mainframe Software</v>
+      </c>
+      <c r="F18" t="str">
         <v>ULK BET 5.1 V9NRBEXP</v>
       </c>
-      <c r="H17" t="str">
+      <c r="G18" t="str">
         <v>MBULL_BETTER 5.1 V9NRBEXP</v>
       </c>
-      <c r="I17" t="str">
-        <v>NRB</v>
-      </c>
-      <c r="J17" t="str">
-        <v>GCOS</v>
-      </c>
-      <c r="K17" t="str">
-        <v>Operational</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="H18" t="str">
+        <v>SPW</v>
+      </c>
+      <c r="I18" t="str">
+        <v>NRB</v>
+      </c>
+      <c r="J18" t="str">
+        <v>GCOS</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Operational</v>
+      </c>
+      <c r="L18" t="str">
         <v>LOUIS/BETTER  sur  Partition GCOS8 SPW EXPLOITATION</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>